--- a/files for download/шаблон.xlsx
+++ b/files for download/шаблон.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9120" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Huawei" sheetId="1" r:id="rId1"/>
     <sheet name="ZTE" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="100" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -58,7 +58,7 @@
     <numFmt numFmtId="178" formatCode="_ * #\ ##0_ ;_ * \-#\ ##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #\ ##0_);_(&quot;$&quot;* \(#\ ##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +81,18 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
@@ -572,133 +584,133 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -713,9 +725,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -725,14 +734,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1067,17 +1079,17 @@
   <sheetPr/>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="5.28703703703704" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.287037037037" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.287037037037" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1388888888889" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.5740740740741" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5714285714286" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7142857142857" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1428571428571" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.5714285714286" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:4">
@@ -1087,334 +1099,335 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:5">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5">
+    <row r="3" customHeight="1" spans="1:5">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>3</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:5">
-      <c r="A4" s="7"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" spans="2:5">
-      <c r="B5" s="5"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" spans="1:5">
-      <c r="A6" s="7">
+    <row r="4" customHeight="1" spans="1:5">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
+      <c r="A5" s="9"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:5">
+      <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" spans="1:5">
-      <c r="A7" s="7">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:5">
+      <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" spans="1:5">
-      <c r="A8" s="7">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:5">
+      <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" spans="1:5">
-      <c r="A9" s="7">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:5">
+      <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" spans="1:5">
-      <c r="A10" s="7">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:5">
+      <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" spans="1:5">
-      <c r="A11" s="7">
+      <c r="B10" s="10"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:5">
+      <c r="A11" s="6">
         <v>6</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" spans="1:5">
-      <c r="A12" s="7">
+      <c r="B11" s="10"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:5">
+      <c r="A12" s="6">
         <v>7</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" spans="1:5">
-      <c r="A13" s="7">
+      <c r="B12" s="10"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:5">
+      <c r="A13" s="6">
         <v>8</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" spans="1:5">
-      <c r="A14" s="7">
+      <c r="B13" s="10"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:5">
+      <c r="A14" s="6">
         <v>9</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" spans="1:5">
-      <c r="A15" s="7">
+      <c r="B14" s="10"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:5">
+      <c r="A15" s="6">
         <v>10</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" spans="1:5">
-      <c r="A16" s="7">
+      <c r="B15" s="10"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:5">
+      <c r="A16" s="6">
         <v>11</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" spans="1:5">
-      <c r="A17" s="7">
+      <c r="B16" s="10"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:5">
+      <c r="A17" s="6">
         <v>12</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" spans="1:5">
-      <c r="A18" s="7">
+      <c r="B17" s="10"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:5">
+      <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" spans="1:5">
-      <c r="A19" s="7">
+      <c r="B18" s="10"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:5">
+      <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" ht="15" customHeight="1" spans="1:5">
-      <c r="A20" s="7">
+      <c r="B19" s="10"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:5">
+      <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" ht="15" customHeight="1" spans="1:5">
-      <c r="A21" s="7">
+      <c r="B20" s="10"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:5">
+      <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" spans="1:5">
-      <c r="A22" s="7">
+      <c r="B21" s="10"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:5">
+      <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" spans="1:5">
-      <c r="A23" s="7">
+      <c r="B22" s="10"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:5">
+      <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" ht="15" customHeight="1" spans="1:5">
-      <c r="A24" s="7">
+      <c r="D23" s="8"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:5">
+      <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="10"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="10"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="10"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="8"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="8"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="8"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="8"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="8"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="8"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="11"/>
@@ -1454,7 +1467,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.298611111111111" footer="0.298611111111111"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1464,358 +1478,358 @@
   <sheetPr/>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="5.28703703703704" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5555555555556" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.552380952381" style="1" customWidth="1"/>
     <col min="3" max="3" width="34.6666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1388888888889" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.5740740740741" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1428571428571" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.5714285714286" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:5">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5">
+    <row r="3" customHeight="1" spans="1:5">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>3</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:5">
-      <c r="A4" s="7"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" spans="1:5">
+    <row r="4" customHeight="1" spans="1:5">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="9"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" spans="1:5">
-      <c r="A6" s="7">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:5">
+      <c r="A6" s="6">
         <v>0</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" spans="1:5">
-      <c r="A7" s="7">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:5">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" spans="1:5">
-      <c r="A8" s="7">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:5">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" spans="1:5">
-      <c r="A9" s="7">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:5">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" spans="1:5">
-      <c r="A10" s="7">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:5">
+      <c r="A10" s="6">
         <v>4</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" spans="1:5">
-      <c r="A11" s="7">
+      <c r="B10" s="10"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:5">
+      <c r="A11" s="6">
         <v>5</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" spans="1:5">
-      <c r="A12" s="7">
+      <c r="B11" s="10"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:5">
+      <c r="A12" s="6">
         <v>6</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" spans="1:5">
-      <c r="A13" s="7">
+      <c r="B12" s="10"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:5">
+      <c r="A13" s="6">
         <v>7</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" spans="1:5">
-      <c r="A14" s="7">
+      <c r="B13" s="10"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:5">
+      <c r="A14" s="6">
         <v>8</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" spans="1:5">
-      <c r="A15" s="7">
+      <c r="B14" s="10"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:5">
+      <c r="A15" s="6">
         <v>9</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" spans="1:5">
-      <c r="A16" s="7">
+      <c r="B15" s="10"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:5">
+      <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" spans="1:5">
-      <c r="A17" s="7">
+      <c r="B16" s="10"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:5">
+      <c r="A17" s="6">
         <v>11</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" spans="1:5">
-      <c r="A18" s="7">
+      <c r="B17" s="10"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:5">
+      <c r="A18" s="6">
         <v>12</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" spans="1:5">
-      <c r="A19" s="7">
+      <c r="B18" s="10"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:5">
+      <c r="A19" s="6">
         <v>13</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" ht="15" customHeight="1" spans="1:5">
-      <c r="A20" s="7">
+      <c r="B19" s="10"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:5">
+      <c r="A20" s="6">
         <v>14</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" ht="15" customHeight="1" spans="1:5">
-      <c r="A21" s="7">
+      <c r="B20" s="10"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:5">
+      <c r="A21" s="6">
         <v>15</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" spans="1:5">
-      <c r="A22" s="7">
+      <c r="B21" s="10"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:5">
+      <c r="A22" s="6">
         <v>16</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" spans="1:5">
-      <c r="A23" s="7">
+      <c r="B22" s="10"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:5">
+      <c r="A23" s="6">
         <v>17</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" ht="15" customHeight="1" spans="1:5">
-      <c r="A24" s="7">
+      <c r="D23" s="8"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:5">
+      <c r="A24" s="6">
         <v>18</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>19</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="10"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="10"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="10"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="8"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="8"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="8"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="8"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="8"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="8"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="11"/>
